--- a/source files/3.xlsx
+++ b/source files/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sentiment analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00AAD96A-7071-421D-8F48-A8312F037A56}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0952C82-2949-4B08-8ED5-4B4DE64BACF1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,12 +322,6 @@
     <t>http://www.capitalcube.com/blog/index.php/waterstone-financial-inc-wsbf-us-earnings-analysis-q3-2016-by-the-numbers-november-1-2016/</t>
   </si>
   <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -347,6 +341,12 @@
   </si>
   <si>
     <t>neutral</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
 </sst>
 </file>
@@ -829,29 +829,29 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -878,7 +878,7 @@
         <v>42675</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -898,7 +898,7 @@
         <v>42675</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>42675</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>42675</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
         <v>42675</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>42675</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>42675</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>42675</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>42675</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>42675</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>42675</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>42675</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>42675</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>42675</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>42675</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>42675</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>42675</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>42675</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,7 +1238,7 @@
         <v>42675</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
         <v>42675</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>42675</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>42675</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>42675</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>42675</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>42675</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>42675</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>42675</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>42675</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>42675</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>42675</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>42675</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>42675</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
         <v>42675</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
         <v>42675</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>42675</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
